--- a/Manuscript_tables/Table_S13.xlsx
+++ b/Manuscript_tables/Table_S13.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiefisher/SurveyPaper/Manuscript_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9E7436-8EA7-954A-B2C3-A8DE9460B2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6F5981-DD3C-A44E-96F9-A14AAC4DA16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27520" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="27520" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shannon_Weiner_IsoTemp" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_S13" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>IsoTemp</t>
+    <t>Pezizomycotina H' Index</t>
   </si>
   <si>
-    <t>H' Index</t>
+    <t>Basidiomycota H' Index</t>
   </si>
   <si>
-    <t>Sampling density</t>
+    <t>Saccharomycotina H' Index</t>
+  </si>
+  <si>
+    <t>All taxa H' Index</t>
+  </si>
+  <si>
+    <t># Isolations across all taxa</t>
+  </si>
+  <si>
+    <t>Isolation Temperature (℃)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -869,30 +878,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10</v>
       </c>
@@ -900,10 +923,19 @@
         <v>4.0567711289389399</v>
       </c>
       <c r="C2">
-        <v>644</v>
+        <v>465</v>
+      </c>
+      <c r="D2">
+        <v>2.9018580285516502</v>
+      </c>
+      <c r="E2">
+        <v>1.43068533608729</v>
+      </c>
+      <c r="F2">
+        <v>3.7279851399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>22</v>
       </c>
@@ -911,10 +943,19 @@
         <v>4.3010370618041502</v>
       </c>
       <c r="C3">
-        <v>561</v>
+        <v>432</v>
+      </c>
+      <c r="D3">
+        <v>3.2200570769937999</v>
+      </c>
+      <c r="E3">
+        <v>1.8343719702816199</v>
+      </c>
+      <c r="F3">
+        <v>3.9616262</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>30</v>
       </c>
@@ -922,10 +963,19 @@
         <v>3.9837231678595502</v>
       </c>
       <c r="C4">
-        <v>457</v>
+        <v>356</v>
+      </c>
+      <c r="D4">
+        <v>2.01403552370927</v>
+      </c>
+      <c r="E4">
+        <v>1.26362567212373</v>
+      </c>
+      <c r="F4">
+        <v>3.8237438699999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -933,7 +983,16 @@
         <v>3.2131453658066098</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>2.9837605651544501</v>
+      </c>
+      <c r="E5">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="F5">
+        <v>1.3517839899999999</v>
       </c>
     </row>
   </sheetData>
